--- a/expimp/product.xlsx
+++ b/expimp/product.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,102 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6c6ddc5d-967a-4a90-8d60-f5dadca77ed6</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>770be96b-9efa-4edd-8d2d-9421c092532d</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-12-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2000.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7c5c5199-ea7b-479a-989c-7344c82565df</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28068c44-4728-44ba-a62a-c411698fec67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-12-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4000.0</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>02a69ac6-b32c-45b0-bbe4-0fd8510541ad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>833a5e28-6256-41c5-adca-526215312470</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-12-25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
